--- a/blog_021a_airports_sealevel/Final Results/Active airports threatened by 1m SLR.xlsx
+++ b/blog_021a_airports_sealevel/Final Results/Active airports threatened by 1m SLR.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onewri-my.sharepoint.com/personal/noah_maghsadi_wri_org/Documents/Documents/Resource Watch/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tina.huang\OneDrive - World Resources Institute\Desktop\Github\Resource Watch\blog-analysis\blog_021a_airports_sealevel\Final Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7AC5814B-7209-4B87-A4CB-05366F623846}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{7AC5814B-7209-4B87-A4CB-05366F623846}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{8479DCDA-42CA-42BE-BF11-958559444D4E}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="53280" yWindow="1380" windowWidth="20400" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Airports_1m_altitude_threaten" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Airports_1m_altitude_threaten!$B$1:$T$81</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Airports_1m_altitude_threaten!$D$1:$D$81</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -1682,13 +1682,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:G81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1719,7 +1719,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -1742,7 +1742,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
@@ -1765,7 +1765,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>26</v>
       </c>
@@ -1788,7 +1788,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>31</v>
       </c>
@@ -1811,7 +1811,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>36</v>
       </c>
@@ -1834,7 +1834,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>42</v>
       </c>
@@ -1857,7 +1857,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>47</v>
       </c>
@@ -1880,7 +1880,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>52</v>
       </c>
@@ -1903,7 +1903,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>57</v>
       </c>
@@ -1926,7 +1926,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>62</v>
       </c>
@@ -1949,7 +1949,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>68</v>
       </c>
@@ -2179,7 +2179,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>124</v>
       </c>
@@ -2202,7 +2202,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>131</v>
       </c>
@@ -2225,7 +2225,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>137</v>
       </c>
@@ -2248,7 +2248,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>143</v>
       </c>
@@ -2271,7 +2271,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>148</v>
       </c>
@@ -2294,7 +2294,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>150</v>
       </c>
@@ -2317,7 +2317,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>159</v>
       </c>
@@ -2340,7 +2340,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>165</v>
       </c>
@@ -2363,7 +2363,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>170</v>
       </c>
@@ -2386,7 +2386,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>175</v>
       </c>
@@ -2409,7 +2409,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>182</v>
       </c>
@@ -2432,7 +2432,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>188</v>
       </c>
@@ -2455,7 +2455,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>193</v>
       </c>
@@ -2478,7 +2478,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>198</v>
       </c>
@@ -2501,7 +2501,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>203</v>
       </c>
@@ -2524,7 +2524,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>208</v>
       </c>
@@ -2547,7 +2547,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>213</v>
       </c>
@@ -2570,7 +2570,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>219</v>
       </c>
@@ -2593,7 +2593,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>224</v>
       </c>
@@ -2616,7 +2616,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>229</v>
       </c>
@@ -2639,7 +2639,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>234</v>
       </c>
@@ -2662,7 +2662,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>239</v>
       </c>
@@ -2685,7 +2685,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>244</v>
       </c>
@@ -2708,7 +2708,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>249</v>
       </c>
@@ -2731,7 +2731,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>253</v>
       </c>
@@ -2754,7 +2754,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>258</v>
       </c>
@@ -2777,7 +2777,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>264</v>
       </c>
@@ -2800,7 +2800,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>269</v>
       </c>
@@ -2823,7 +2823,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>274</v>
       </c>
@@ -2846,7 +2846,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>279</v>
       </c>
@@ -2869,7 +2869,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>284</v>
       </c>
@@ -2892,7 +2892,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>289</v>
       </c>
@@ -2915,7 +2915,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>294</v>
       </c>
@@ -2961,7 +2961,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>306</v>
       </c>
@@ -2984,7 +2984,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>311</v>
       </c>
@@ -3007,7 +3007,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>317</v>
       </c>
@@ -3076,7 +3076,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>333</v>
       </c>
@@ -3099,7 +3099,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>338</v>
       </c>
@@ -3122,7 +3122,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>342</v>
       </c>
@@ -3145,7 +3145,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>347</v>
       </c>
@@ -3168,7 +3168,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>351</v>
       </c>
@@ -3191,7 +3191,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>355</v>
       </c>
@@ -3214,7 +3214,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>360</v>
       </c>
@@ -3237,7 +3237,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>364</v>
       </c>
@@ -3260,7 +3260,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>368</v>
       </c>
@@ -3283,7 +3283,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>372</v>
       </c>
@@ -3306,7 +3306,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>376</v>
       </c>
@@ -3329,7 +3329,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>380</v>
       </c>
@@ -3398,7 +3398,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>396</v>
       </c>
@@ -3421,7 +3421,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>402</v>
       </c>
@@ -3444,7 +3444,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>406</v>
       </c>
@@ -3467,7 +3467,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>410</v>
       </c>
@@ -3490,7 +3490,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>414</v>
       </c>
@@ -3513,7 +3513,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>419</v>
       </c>
@@ -3536,7 +3536,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:7" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>423</v>
       </c>
@@ -3560,6 +3560,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="D1:D81" xr:uid="{E71946CB-58E7-4E20-A09E-6C73FBD8D977}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Asia"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="G3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>

--- a/blog_021a_airports_sealevel/Final Results/Active airports threatened by 1m SLR.xlsx
+++ b/blog_021a_airports_sealevel/Final Results/Active airports threatened by 1m SLR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tina.huang\OneDrive - World Resources Institute\Desktop\Github\Resource Watch\blog-analysis\blog_021a_airports_sealevel\Final Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{7AC5814B-7209-4B87-A4CB-05366F623846}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{8479DCDA-42CA-42BE-BF11-958559444D4E}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="8_{7AC5814B-7209-4B87-A4CB-05366F623846}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{25505977-E809-45D0-8C5A-9AABEF0FB50D}"/>
   <bookViews>
-    <workbookView xWindow="53280" yWindow="1380" windowWidth="20400" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="26430" yWindow="3810" windowWidth="16845" windowHeight="9195" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Airports_1m_altitude_threaten" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="424">
   <si>
     <t>city</t>
   </si>
@@ -905,9 +905,6 @@
   </si>
   <si>
     <t>NGTS</t>
-  </si>
-  <si>
-    <t>Tabiteuea South Airport</t>
   </si>
   <si>
     <t>https://www.airportia.com/kiribati/tabiteuea-south-airport/</t>
@@ -1682,13 +1679,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1">
+  <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:G81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1719,7 +1716,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -1742,7 +1739,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
@@ -1765,7 +1762,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>26</v>
       </c>
@@ -1788,7 +1785,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>31</v>
       </c>
@@ -1811,7 +1808,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>36</v>
       </c>
@@ -1834,7 +1831,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>42</v>
       </c>
@@ -1857,7 +1854,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>47</v>
       </c>
@@ -1880,7 +1877,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>52</v>
       </c>
@@ -1903,7 +1900,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>57</v>
       </c>
@@ -1926,7 +1923,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>62</v>
       </c>
@@ -1949,7 +1946,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>68</v>
       </c>
@@ -2179,7 +2176,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>124</v>
       </c>
@@ -2202,7 +2199,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>131</v>
       </c>
@@ -2225,7 +2222,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>137</v>
       </c>
@@ -2248,7 +2245,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>143</v>
       </c>
@@ -2271,7 +2268,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>148</v>
       </c>
@@ -2294,7 +2291,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>150</v>
       </c>
@@ -2317,7 +2314,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>159</v>
       </c>
@@ -2340,7 +2337,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>165</v>
       </c>
@@ -2363,7 +2360,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>170</v>
       </c>
@@ -2386,7 +2383,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>175</v>
       </c>
@@ -2409,7 +2406,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>182</v>
       </c>
@@ -2432,7 +2429,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>188</v>
       </c>
@@ -2455,7 +2452,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>193</v>
       </c>
@@ -2478,7 +2475,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>198</v>
       </c>
@@ -2501,7 +2498,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>203</v>
       </c>
@@ -2524,7 +2521,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>208</v>
       </c>
@@ -2547,7 +2544,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>213</v>
       </c>
@@ -2570,7 +2567,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>219</v>
       </c>
@@ -2593,7 +2590,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>224</v>
       </c>
@@ -2616,7 +2613,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>229</v>
       </c>
@@ -2639,7 +2636,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>234</v>
       </c>
@@ -2662,7 +2659,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>239</v>
       </c>
@@ -2685,7 +2682,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>244</v>
       </c>
@@ -2708,7 +2705,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>249</v>
       </c>
@@ -2731,7 +2728,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>253</v>
       </c>
@@ -2754,7 +2751,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>258</v>
       </c>
@@ -2777,7 +2774,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>264</v>
       </c>
@@ -2800,7 +2797,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>269</v>
       </c>
@@ -2823,7 +2820,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>274</v>
       </c>
@@ -2846,7 +2843,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>279</v>
       </c>
@@ -2869,7 +2866,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>284</v>
       </c>
@@ -2892,7 +2889,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>289</v>
       </c>
@@ -2915,9 +2912,9 @@
         <v>290</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" ht="113.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>294</v>
+        <v>47</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>291</v>
@@ -2935,15 +2932,15 @@
         <v>293</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>90</v>
@@ -2952,139 +2949,139 @@
         <v>79</v>
       </c>
       <c r="E55" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="F55" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="F55" s="1" t="s">
-        <v>298</v>
-      </c>
       <c r="G55" s="2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B56" s="1" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="1" t="s">
+      <c r="C56" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="G56" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="B56" s="1" t="s">
+    </row>
+    <row r="57" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="C57" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="D57" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="D56" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="G56" s="2" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="1" t="s">
+      <c r="E57" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="G57" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="B57" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="G57" s="2" t="s">
+    </row>
+    <row r="58" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B58" s="1" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="B58" s="1" t="s">
+      <c r="C58" s="1" t="s">
         <v>313</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>314</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>179</v>
       </c>
       <c r="E58" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="F58" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="F58" s="1" t="s">
-        <v>316</v>
-      </c>
       <c r="G58" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B59" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="C59" s="1" t="s">
         <v>319</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>320</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>79</v>
       </c>
       <c r="E59" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="F59" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="F59" s="1" t="s">
-        <v>322</v>
-      </c>
       <c r="G59" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>72</v>
       </c>
       <c r="E60" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="F60" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="F60" s="1" t="s">
-        <v>327</v>
-      </c>
       <c r="G60" s="2" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B61" s="1" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="B61" s="1" t="s">
+      <c r="C61" s="1" t="s">
         <v>330</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>331</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>17</v>
@@ -3093,21 +3090,21 @@
         <v>13</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G61" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B62" s="1" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="B62" s="1" t="s">
+      <c r="C62" s="1" t="s">
         <v>335</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>336</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>17</v>
@@ -3116,21 +3113,21 @@
         <v>13</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G62" s="2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B63" s="1" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>340</v>
-      </c>
       <c r="C63" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>17</v>
@@ -3139,21 +3136,21 @@
         <v>13</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G63" s="2" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B64" s="1" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="B64" s="1" t="s">
+      <c r="C64" s="1" t="s">
         <v>344</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>345</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>17</v>
@@ -3162,18 +3159,18 @@
         <v>13</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G64" s="2" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B65" s="1" t="s">
         <v>348</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>349</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>23</v>
@@ -3185,18 +3182,18 @@
         <v>13</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G65" s="2" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B66" s="1" t="s">
         <v>352</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>353</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>23</v>
@@ -3208,21 +3205,21 @@
         <v>13</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G66" s="2" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B67" s="1" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="B67" s="1" t="s">
+      <c r="C67" s="1" t="s">
         <v>357</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>358</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>17</v>
@@ -3231,18 +3228,18 @@
         <v>13</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G67" s="2" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="B68" s="1" t="s">
         <v>361</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>362</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>39</v>
@@ -3254,18 +3251,18 @@
         <v>13</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G68" s="2" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B69" s="1" t="s">
         <v>365</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>366</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>39</v>
@@ -3277,21 +3274,21 @@
         <v>13</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G69" s="2" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B70" s="1" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>370</v>
-      </c>
       <c r="C70" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>17</v>
@@ -3300,21 +3297,21 @@
         <v>13</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G70" s="2" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B71" s="1" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>374</v>
-      </c>
       <c r="C71" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>17</v>
@@ -3323,21 +3320,21 @@
         <v>13</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G71" s="2" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A72" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="B72" s="1" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>378</v>
-      </c>
       <c r="C72" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>17</v>
@@ -3346,21 +3343,21 @@
         <v>13</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B73" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="C73" s="1" t="s">
         <v>382</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>383</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>79</v>
@@ -3369,21 +3366,21 @@
         <v>13</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B74" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="C74" s="1" t="s">
         <v>387</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>388</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>79</v>
@@ -3392,64 +3389,64 @@
         <v>13</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G74" s="1" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A75" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="B75" s="1" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="B75" s="1" t="s">
+      <c r="C75" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="D75" s="1" t="s">
         <v>393</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>394</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G75" s="2" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A76" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B76" s="1" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="B76" s="1" t="s">
+      <c r="C76" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="D76" s="1" t="s">
         <v>399</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>400</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G76" s="1" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A77" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="B77" s="1" t="s">
         <v>403</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>404</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>161</v>
@@ -3461,18 +3458,18 @@
         <v>13</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G77" s="2" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A78" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="B78" s="1" t="s">
         <v>407</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>408</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>140</v>
@@ -3484,18 +3481,18 @@
         <v>13</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G78" s="2" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A79" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="B79" s="1" t="s">
         <v>411</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>412</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>185</v>
@@ -3507,21 +3504,21 @@
         <v>13</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G79" s="2" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A80" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B80" s="1" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="B80" s="1" t="s">
+      <c r="C80" s="1" t="s">
         <v>416</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>417</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>17</v>
@@ -3530,18 +3527,18 @@
         <v>13</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="G80" s="2" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A81" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="B81" s="1" t="s">
         <v>420</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>421</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>185</v>
@@ -3553,20 +3550,14 @@
         <v>13</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="D1:D81" xr:uid="{E71946CB-58E7-4E20-A09E-6C73FBD8D977}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="Asia"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="D1:D81" xr:uid="{E71946CB-58E7-4E20-A09E-6C73FBD8D977}"/>
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="G3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
